--- a/simulated_data/10nodes_15len_trial8.xlsx
+++ b/simulated_data/10nodes_15len_trial8.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.864634128923708</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.864610848505588</v>
+        <v>9.025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.585</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.649999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.485</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3811297312640849</v>
+        <v>9.025</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3811253422960302</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.015</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19.185</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.005000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.63523708692685</v>
+        <v>11.325</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.635215939448089</v>
+        <v>8.975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.434999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.773684640170639</v>
+        <v>18.07</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.773716740985639</v>
+        <v>12.015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.574999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.045</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.83</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.328914474839904</v>
+        <v>17.585</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.328914698661301</v>
+        <v>18.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.725</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.725</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.010827438017362</v>
+        <v>18.96</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.010822493999153</v>
+        <v>16.58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.945</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.463565853863444</v>
+        <v>9.649999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.463564568260924</v>
+        <v>19.185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.574999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.245</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.83</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8368572894147619</v>
+        <v>0.17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8368438722509524</v>
+        <v>8.085000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.434999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.045</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.245</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.105</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.954243853279451</v>
+        <v>16.19</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9542521534736682</v>
+        <v>8.27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.725</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2.485</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>9.005000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.725</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.945</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.99</v>
+        <v>7.45</v>
       </c>
       <c r="D2" t="n">
-        <v>12.29</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>13.95</v>
+        <v>9.56</v>
       </c>
       <c r="F2" t="n">
-        <v>15.4</v>
+        <v>10.88</v>
       </c>
       <c r="G2" t="n">
-        <v>16.04</v>
+        <v>12.15</v>
       </c>
       <c r="H2" t="n">
-        <v>13.88</v>
+        <v>12.79</v>
       </c>
       <c r="I2" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="J2" t="n">
-        <v>13.71</v>
+        <v>12.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.99</v>
+        <v>7.45</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.77</v>
+        <v>10.22</v>
       </c>
       <c r="E3" t="n">
-        <v>12.85</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>16.61</v>
+        <v>12.57</v>
       </c>
       <c r="G3" t="n">
-        <v>16.24</v>
+        <v>12.89</v>
       </c>
       <c r="H3" t="n">
-        <v>16.66</v>
+        <v>12.74</v>
       </c>
       <c r="I3" t="n">
-        <v>8.16</v>
+        <v>7.36</v>
       </c>
       <c r="J3" t="n">
-        <v>7.25</v>
+        <v>6.33</v>
       </c>
       <c r="K3" t="n">
-        <v>7.38</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.29</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.77</v>
+        <v>10.22</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>2.43</v>
       </c>
       <c r="G4" t="n">
-        <v>3.87</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="I4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="J4" t="n">
-        <v>8.609999999999999</v>
+        <v>11.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11.02</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.95</v>
+        <v>9.56</v>
       </c>
       <c r="C5" t="n">
-        <v>12.85</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.37</v>
+        <v>3.38</v>
       </c>
       <c r="G5" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="H5" t="n">
-        <v>5.92</v>
+        <v>3.42</v>
       </c>
       <c r="I5" t="n">
-        <v>10.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>7.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>12.36</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.4</v>
+        <v>10.88</v>
       </c>
       <c r="C6" t="n">
-        <v>16.61</v>
+        <v>12.57</v>
       </c>
       <c r="D6" t="n">
-        <v>3.85</v>
+        <v>2.43</v>
       </c>
       <c r="E6" t="n">
-        <v>4.37</v>
+        <v>3.38</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>3.07</v>
       </c>
       <c r="I6" t="n">
-        <v>12.35</v>
+        <v>10.53</v>
       </c>
       <c r="J6" t="n">
-        <v>11.87</v>
+        <v>12.72</v>
       </c>
       <c r="K6" t="n">
-        <v>14.49</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.04</v>
+        <v>12.15</v>
       </c>
       <c r="C7" t="n">
-        <v>16.24</v>
+        <v>12.89</v>
       </c>
       <c r="D7" t="n">
-        <v>3.87</v>
+        <v>3.45</v>
       </c>
       <c r="E7" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>1.37</v>
       </c>
       <c r="I7" t="n">
-        <v>12.79</v>
+        <v>11.79</v>
       </c>
       <c r="J7" t="n">
-        <v>10.93</v>
+        <v>12.15</v>
       </c>
       <c r="K7" t="n">
-        <v>14.88</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.88</v>
+        <v>12.79</v>
       </c>
       <c r="C8" t="n">
-        <v>16.66</v>
+        <v>12.74</v>
       </c>
       <c r="D8" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="E8" t="n">
-        <v>5.92</v>
+        <v>3.42</v>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>3.07</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.37</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.2</v>
+        <v>12.43</v>
       </c>
       <c r="J8" t="n">
-        <v>12.97</v>
+        <v>11.36</v>
       </c>
       <c r="K8" t="n">
-        <v>13.38</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="C9" t="n">
-        <v>8.16</v>
+        <v>7.36</v>
       </c>
       <c r="D9" t="n">
-        <v>8.949999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="E9" t="n">
-        <v>10.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>12.35</v>
+        <v>10.53</v>
       </c>
       <c r="G9" t="n">
-        <v>12.79</v>
+        <v>11.79</v>
       </c>
       <c r="H9" t="n">
-        <v>11.2</v>
+        <v>12.43</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.37</v>
+        <v>12.59</v>
       </c>
       <c r="K9" t="n">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.71</v>
+        <v>12.8</v>
       </c>
       <c r="C10" t="n">
-        <v>7.25</v>
+        <v>6.33</v>
       </c>
       <c r="D10" t="n">
-        <v>8.609999999999999</v>
+        <v>11.04</v>
       </c>
       <c r="E10" t="n">
-        <v>7.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>11.87</v>
+        <v>12.72</v>
       </c>
       <c r="G10" t="n">
-        <v>10.93</v>
+        <v>12.15</v>
       </c>
       <c r="H10" t="n">
-        <v>12.97</v>
+        <v>11.36</v>
       </c>
       <c r="I10" t="n">
-        <v>10.37</v>
+        <v>12.59</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.17</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="C11" t="n">
-        <v>7.38</v>
+        <v>6.69</v>
       </c>
       <c r="D11" t="n">
-        <v>11.02</v>
+        <v>10.62</v>
       </c>
       <c r="E11" t="n">
-        <v>12.36</v>
+        <v>11.19</v>
       </c>
       <c r="F11" t="n">
-        <v>14.49</v>
+        <v>12.91</v>
       </c>
       <c r="G11" t="n">
-        <v>14.88</v>
+        <v>14.05</v>
       </c>
       <c r="H11" t="n">
-        <v>13.38</v>
+        <v>14.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>11.17</v>
+        <v>12.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8554638061473693</v>
+        <v>-1.246177505494954</v>
       </c>
       <c r="C2" t="n">
-        <v>9.06532324279714</v>
+        <v>0.2269953168709424</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.198145461421339</v>
+        <v>-2.546128994631328</v>
       </c>
       <c r="C3" t="n">
-        <v>4.842842045668304</v>
+        <v>7.559575252430267</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.720748712971213</v>
+        <v>6.823106362058833</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.198883578780555</v>
+        <v>3.481298063733258</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2119821786412092</v>
+        <v>6.749644838264458</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.868783402675132</v>
+        <v>5.461642546243556</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.460513595874125</v>
+        <v>9.230557602040376</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.909541405023047</v>
+        <v>3.167526641332309</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.10337156649251</v>
+        <v>10.03082688565074</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.815176048780548</v>
+        <v>4.748073172124843</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.034055371787762</v>
+        <v>10.11071534199832</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.811809727059031</v>
+        <v>6.111182893186554</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.07455618677888529</v>
+        <v>-0.9241626166525778</v>
       </c>
       <c r="C9" t="n">
-        <v>5.572450167354849</v>
+        <v>0.3845990279556541</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.84225105015065</v>
+        <v>0.9564469166725201</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.27890016997944</v>
+        <v>12.83476970842599</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.271182533563311</v>
+        <v>-3.487591545743374</v>
       </c>
       <c r="C11" t="n">
-        <v>7.40247887647746</v>
+        <v>0.9333499246664547</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.32</v>
+        <v>4.59</v>
       </c>
       <c r="D2" t="n">
-        <v>7.03</v>
+        <v>10.61</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>7.91</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>10.69</v>
+        <v>11.14</v>
       </c>
       <c r="H2" t="n">
-        <v>13.77</v>
+        <v>10.36</v>
       </c>
       <c r="I2" t="n">
-        <v>10.4</v>
+        <v>2.87</v>
       </c>
       <c r="J2" t="n">
-        <v>6.44</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
-        <v>16.55</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.32</v>
+        <v>4.59</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.57</v>
+        <v>6.02</v>
       </c>
       <c r="E3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.21</v>
       </c>
       <c r="F3" t="n">
-        <v>11.13</v>
+        <v>8.41</v>
       </c>
       <c r="G3" t="n">
-        <v>12.59</v>
+        <v>6.55</v>
       </c>
       <c r="H3" t="n">
-        <v>13.47</v>
+        <v>5.77</v>
       </c>
       <c r="I3" t="n">
-        <v>6.44</v>
+        <v>1.72</v>
       </c>
       <c r="J3" t="n">
-        <v>4.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>10.4</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.03</v>
+        <v>10.61</v>
       </c>
       <c r="C4" t="n">
-        <v>11.57</v>
+        <v>6.02</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.81</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.83</v>
+        <v>0.53</v>
       </c>
       <c r="H4" t="n">
-        <v>8.93</v>
+        <v>0.24</v>
       </c>
       <c r="I4" t="n">
-        <v>10.25</v>
+        <v>7.74</v>
       </c>
       <c r="J4" t="n">
-        <v>12.89</v>
+        <v>5.21</v>
       </c>
       <c r="K4" t="n">
-        <v>16.99</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="C5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.21</v>
       </c>
       <c r="D5" t="n">
-        <v>3.81</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.93</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.83</v>
+        <v>0.34</v>
       </c>
       <c r="H5" t="n">
-        <v>7.62</v>
+        <v>0.44</v>
       </c>
       <c r="I5" t="n">
-        <v>6.59</v>
+        <v>7.93</v>
       </c>
       <c r="J5" t="n">
-        <v>10.4</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>13.33</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.91</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>11.13</v>
+        <v>8.41</v>
       </c>
       <c r="D6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2.93</v>
+        <v>2.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>6.88</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>8.789999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="J6" t="n">
-        <v>13.03</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>15.38</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.69</v>
+        <v>11.14</v>
       </c>
       <c r="C7" t="n">
-        <v>12.59</v>
+        <v>6.55</v>
       </c>
       <c r="D7" t="n">
-        <v>4.83</v>
+        <v>0.53</v>
       </c>
       <c r="E7" t="n">
-        <v>4.83</v>
+        <v>0.34</v>
       </c>
       <c r="F7" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.25</v>
+        <v>0.77</v>
       </c>
       <c r="I7" t="n">
-        <v>8.640000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="J7" t="n">
-        <v>15.23</v>
+        <v>5.74</v>
       </c>
       <c r="K7" t="n">
-        <v>14.79</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.77</v>
+        <v>10.36</v>
       </c>
       <c r="C8" t="n">
-        <v>13.47</v>
+        <v>5.77</v>
       </c>
       <c r="D8" t="n">
-        <v>8.93</v>
+        <v>0.24</v>
       </c>
       <c r="E8" t="n">
-        <v>7.62</v>
+        <v>0.44</v>
       </c>
       <c r="F8" t="n">
-        <v>6.88</v>
+        <v>2.64</v>
       </c>
       <c r="G8" t="n">
-        <v>4.25</v>
+        <v>0.77</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.76</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>16.99</v>
+        <v>4.96</v>
       </c>
       <c r="K8" t="n">
-        <v>12.3</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4</v>
+        <v>2.87</v>
       </c>
       <c r="C9" t="n">
-        <v>6.44</v>
+        <v>1.72</v>
       </c>
       <c r="D9" t="n">
-        <v>10.25</v>
+        <v>7.74</v>
       </c>
       <c r="E9" t="n">
-        <v>6.59</v>
+        <v>7.93</v>
       </c>
       <c r="F9" t="n">
-        <v>8.789999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="G9" t="n">
-        <v>8.640000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="H9" t="n">
-        <v>7.76</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.84</v>
+        <v>2.53</v>
       </c>
       <c r="K9" t="n">
-        <v>6.88</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.44</v>
+        <v>5.4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>12.89</v>
+        <v>5.21</v>
       </c>
       <c r="E10" t="n">
-        <v>10.4</v>
+        <v>5.4</v>
       </c>
       <c r="F10" t="n">
-        <v>13.03</v>
+        <v>7.6</v>
       </c>
       <c r="G10" t="n">
-        <v>15.23</v>
+        <v>5.74</v>
       </c>
       <c r="H10" t="n">
-        <v>16.99</v>
+        <v>4.96</v>
       </c>
       <c r="I10" t="n">
-        <v>10.84</v>
+        <v>2.53</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.79</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.55</v>
+        <v>2.64</v>
       </c>
       <c r="C11" t="n">
-        <v>10.4</v>
+        <v>1.95</v>
       </c>
       <c r="D11" t="n">
-        <v>16.99</v>
+        <v>7.97</v>
       </c>
       <c r="E11" t="n">
-        <v>13.33</v>
+        <v>8.17</v>
       </c>
       <c r="F11" t="n">
-        <v>15.38</v>
+        <v>10.36</v>
       </c>
       <c r="G11" t="n">
-        <v>14.79</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>12.3</v>
+        <v>7.73</v>
       </c>
       <c r="I11" t="n">
-        <v>6.88</v>
+        <v>0.23</v>
       </c>
       <c r="J11" t="n">
-        <v>14.79</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4431084171619967</v>
+        <v>2.864634128923708</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09974316222965682</v>
+        <v>2.864610848505588</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07788551163513391</v>
+        <v>-0.3811297312640849</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4421148257083272</v>
+        <v>-0.3811253422960302</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2360917093051806</v>
+        <v>-4.63523708692685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3320166677086217</v>
+        <v>-4.635215939448089</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09079268666456491</v>
+        <v>-4.773684640170639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1184639918337296</v>
+        <v>-4.773716740985639</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1000599854730428</v>
+        <v>-6.328914474839904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3136704768154105</v>
+        <v>-6.328914698661301</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08126723738706354</v>
+        <v>-5.010827438017362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4036150433646893</v>
+        <v>-5.010822493999153</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3723561277074439</v>
+        <v>-4.463565853863444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3616097356124368</v>
+        <v>-4.463564568260924</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2626452287981755</v>
+        <v>0.8368572894147619</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.15851281613379</v>
+        <v>0.8368438722509524</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3729834775055628</v>
+        <v>-0.954243853279451</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5325326641521398</v>
+        <v>-0.9542521534736682</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6306911297042123</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.442763907383578</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.18</v>
+        <v>9.99</v>
       </c>
       <c r="D2" t="n">
-        <v>10.72</v>
+        <v>12.29</v>
       </c>
       <c r="E2" t="n">
-        <v>12.29</v>
+        <v>13.95</v>
       </c>
       <c r="F2" t="n">
-        <v>13.52</v>
+        <v>15.4</v>
       </c>
       <c r="G2" t="n">
-        <v>12.84</v>
+        <v>16.04</v>
       </c>
       <c r="H2" t="n">
-        <v>12.17</v>
+        <v>13.88</v>
       </c>
       <c r="I2" t="n">
-        <v>0.41</v>
+        <v>3.61</v>
       </c>
       <c r="J2" t="n">
-        <v>9.34</v>
+        <v>13.71</v>
       </c>
       <c r="K2" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.18</v>
+        <v>9.99</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.72</v>
+        <v>12.77</v>
       </c>
       <c r="E3" t="n">
-        <v>8.710000000000001</v>
+        <v>12.85</v>
       </c>
       <c r="F3" t="n">
-        <v>10.52</v>
+        <v>16.61</v>
       </c>
       <c r="G3" t="n">
-        <v>10.32</v>
+        <v>16.24</v>
       </c>
       <c r="H3" t="n">
-        <v>10.19</v>
+        <v>16.66</v>
       </c>
       <c r="I3" t="n">
-        <v>3.84</v>
+        <v>8.16</v>
       </c>
       <c r="J3" t="n">
-        <v>5.51</v>
+        <v>7.25</v>
       </c>
       <c r="K3" t="n">
-        <v>5.95</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.72</v>
+        <v>12.29</v>
       </c>
       <c r="C4" t="n">
-        <v>7.72</v>
+        <v>12.77</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.87</v>
+        <v>3.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.66</v>
+        <v>4.36</v>
       </c>
       <c r="I4" t="n">
-        <v>10.31</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>9.09</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>13.06</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.29</v>
+        <v>13.95</v>
       </c>
       <c r="C5" t="n">
-        <v>8.710000000000001</v>
+        <v>12.85</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>4.37</v>
       </c>
       <c r="G5" t="n">
-        <v>4.29</v>
+        <v>3.49</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.92</v>
       </c>
       <c r="I5" t="n">
-        <v>11.88</v>
+        <v>10.45</v>
       </c>
       <c r="J5" t="n">
-        <v>8.43</v>
+        <v>7.51</v>
       </c>
       <c r="K5" t="n">
-        <v>14.48</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.52</v>
+        <v>15.4</v>
       </c>
       <c r="C6" t="n">
-        <v>10.52</v>
+        <v>16.61</v>
       </c>
       <c r="D6" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="E6" t="n">
-        <v>2.94</v>
+        <v>4.37</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.63</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>13.11</v>
+        <v>12.35</v>
       </c>
       <c r="J6" t="n">
-        <v>11.21</v>
+        <v>11.87</v>
       </c>
       <c r="K6" t="n">
-        <v>15.88</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.84</v>
+        <v>16.04</v>
       </c>
       <c r="C7" t="n">
-        <v>10.32</v>
+        <v>16.24</v>
       </c>
       <c r="D7" t="n">
-        <v>2.87</v>
+        <v>3.87</v>
       </c>
       <c r="E7" t="n">
-        <v>4.29</v>
+        <v>3.49</v>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>12.44</v>
+        <v>12.79</v>
       </c>
       <c r="J7" t="n">
-        <v>11.93</v>
+        <v>10.93</v>
       </c>
       <c r="K7" t="n">
-        <v>15.25</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.17</v>
+        <v>13.88</v>
       </c>
       <c r="C8" t="n">
-        <v>10.19</v>
+        <v>16.66</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66</v>
+        <v>4.36</v>
       </c>
       <c r="E8" t="n">
-        <v>5.7</v>
+        <v>5.92</v>
       </c>
       <c r="F8" t="n">
-        <v>3.63</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.79</v>
+        <v>11.2</v>
       </c>
       <c r="J8" t="n">
-        <v>12.59</v>
+        <v>12.97</v>
       </c>
       <c r="K8" t="n">
-        <v>14.62</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.41</v>
+        <v>3.61</v>
       </c>
       <c r="C9" t="n">
-        <v>3.84</v>
+        <v>8.16</v>
       </c>
       <c r="D9" t="n">
-        <v>10.31</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>11.88</v>
+        <v>10.45</v>
       </c>
       <c r="F9" t="n">
-        <v>13.11</v>
+        <v>12.35</v>
       </c>
       <c r="G9" t="n">
-        <v>12.44</v>
+        <v>12.79</v>
       </c>
       <c r="H9" t="n">
-        <v>11.79</v>
+        <v>11.2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.09</v>
+        <v>10.37</v>
       </c>
       <c r="K9" t="n">
-        <v>2.83</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.34</v>
+        <v>13.71</v>
       </c>
       <c r="C10" t="n">
-        <v>5.51</v>
+        <v>7.25</v>
       </c>
       <c r="D10" t="n">
-        <v>9.09</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>8.43</v>
+        <v>7.51</v>
       </c>
       <c r="F10" t="n">
-        <v>11.21</v>
+        <v>11.87</v>
       </c>
       <c r="G10" t="n">
-        <v>11.93</v>
+        <v>10.93</v>
       </c>
       <c r="H10" t="n">
-        <v>12.59</v>
+        <v>12.97</v>
       </c>
       <c r="I10" t="n">
-        <v>9.09</v>
+        <v>10.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.36</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="C11" t="n">
-        <v>5.95</v>
+        <v>7.38</v>
       </c>
       <c r="D11" t="n">
-        <v>13.06</v>
+        <v>11.02</v>
       </c>
       <c r="E11" t="n">
-        <v>14.48</v>
+        <v>12.36</v>
       </c>
       <c r="F11" t="n">
-        <v>15.88</v>
+        <v>14.49</v>
       </c>
       <c r="G11" t="n">
-        <v>15.25</v>
+        <v>14.88</v>
       </c>
       <c r="H11" t="n">
-        <v>14.62</v>
+        <v>13.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.83</v>
+        <v>2.19</v>
       </c>
       <c r="J11" t="n">
-        <v>10.36</v>
+        <v>11.17</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.078292068700998</v>
+        <v>-2.802940064687609</v>
       </c>
       <c r="C2" t="n">
-        <v>3.638960551306083</v>
+        <v>-8.663445367843135</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.609428528258191</v>
+        <v>-9.445526387005946</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5159225616736223</v>
+        <v>-1.201944023666962</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.111157883775687</v>
+        <v>2.846586897547646</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.318200740006713</v>
+        <v>2.256291886993969</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.445392750672421</v>
+        <v>2.121965544588447</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.772638454566555</v>
+        <v>4.387089564530658</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.3025528961859</v>
+        <v>6.435466510798159</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.09927315439003</v>
+        <v>3.661108968452639</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.977303947048951</v>
+        <v>5.547668434385721</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.341045888928308</v>
+        <v>5.029997522873665</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.357234713469234</v>
+        <v>7.050091897822232</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.629892051662048</v>
+        <v>1.111882551707883</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.816736924343136</v>
+        <v>-2.274299803654227</v>
       </c>
       <c r="C9" t="n">
-        <v>3.321471346545614</v>
+        <v>-5.087807870006454</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.896344454001478</v>
+        <v>-5.381194020846553</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.527297934240162</v>
+        <v>4.801304276007676</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.21213790967278</v>
+        <v>-4.097819008947869</v>
       </c>
       <c r="C11" t="n">
-        <v>4.829519854154676</v>
+        <v>-6.294477509049939</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001308917999267578</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001430511474609375</v>
+        <v>10.14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3726601600646973</v>
+        <v>13.21</v>
       </c>
       <c r="E2" t="n">
-        <v>1.023115873336792</v>
+        <v>12.29</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2065615653991699</v>
+        <v>15.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05410432815551758</v>
+        <v>14.75</v>
       </c>
       <c r="H2" t="n">
-        <v>1.233747005462646</v>
+        <v>14.13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.3491856647858198</v>
       </c>
       <c r="C2" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7987897125567323</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.134222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.242329670984282</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001308917999267578</v>
+        <v>0.4494959640527591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.3103445740573036</v>
       </c>
       <c r="C3" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5630667765869745</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.879222222222222</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.200602533996193</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001430511474609375</v>
+        <v>0.4370331861092134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.03431158642553073</v>
       </c>
       <c r="C4" t="n">
-        <v>6.840000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9688385269121814</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.507111111111111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2136191332683049</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3726601600646973</v>
+        <v>-0.3217799267942328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.06550303324925731</v>
       </c>
       <c r="C5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.10526315789474</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.956444444444446</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7798961901129259</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.023115873336792</v>
+        <v>-0.3001987912028252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.019256510338066</v>
       </c>
       <c r="C6" t="n">
-        <v>3.909999999999998</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.095111111111111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5578278941713068</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2065615653991699</v>
+        <v>-0.4716751152852671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.031392683118432</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53.73684210526316</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.994666666666666</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.735397063612233</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.05410432815551758</v>
+        <v>-0.43682248936381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.04197674449104741</v>
       </c>
       <c r="C8" t="n">
-        <v>5.83</v>
+        <v>-0.4144278860812993</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.253751801900176</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3792522530677848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.5618199730440917</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1889274196476186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2214126104958596</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4997773047460297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.68</v>
       </c>
       <c r="D8" t="n">
-        <v>1.157894736842105</v>
+        <v>3.77</v>
       </c>
       <c r="E8" t="n">
-        <v>1.320888888888889</v>
+        <v>5.54</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1838666080296932</v>
+        <v>3.53</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.233747005462646</v>
+        <v>10.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.172158116573288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.726532990247922</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.464771226672728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.438847279242434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.771919577173559</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.074664871343291</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-4.348584193885203</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.465742005688863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-7.191626569379524</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.848559528205028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-7.54170499070583</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.10641916857087</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-8.172719803660639</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.454270297673594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.961727351782934</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.387777688619339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.298817487982635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.672119165496019</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.244355501492752</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.088455861956665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4290972856414981</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.4257233941103853</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3230138989765715</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5032732942520055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2290771324222953</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03399215139851433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2329362716823661</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1533740598629249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3660119973425802</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1720672962264063</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3899498875327778</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01952212423322093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2754363313319654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3361426307444076</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2922232498776155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.217045582488386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.05619156370867748</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5764617643427843</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3928856221023423</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1356444905198865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20.6185593336544</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.636304217570915</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.0921365894216</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.07270871588388</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-10.69632083532299</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9152584289953702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.29406150509832</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.747017888467076</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-17.01365390567144</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.523644139800559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-17.98011319801094</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.373633335562753</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-13.41608792866538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.027399296697975</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.27510543373061</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.51204065029964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.647381021051712</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.89752069757592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.76705499491075</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.306750762115882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002629756927490234</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002558231353759766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002660751342773438</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.474815368652344</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.380660533905029</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1305291652679443</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2197971343994141</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.193328857421875</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01460671424865723</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01007771492004395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.49</v>
+        <v>6.72</v>
       </c>
       <c r="D2" t="n">
-        <v>14.23</v>
+        <v>10.25</v>
       </c>
       <c r="E2" t="n">
-        <v>19.66</v>
+        <v>8.92</v>
       </c>
       <c r="F2" t="n">
-        <v>23.78</v>
+        <v>12.08</v>
       </c>
       <c r="G2" t="n">
-        <v>18.48</v>
+        <v>12.37</v>
       </c>
       <c r="H2" t="n">
-        <v>9.44</v>
+        <v>13.37</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="J2" t="n">
-        <v>10.74</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>2.06</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.56</v>
+        <v>6.72</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.37</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3</v>
+        <v>9.16</v>
       </c>
       <c r="F3" t="n">
-        <v>15.44</v>
+        <v>11.07</v>
       </c>
       <c r="G3" t="n">
-        <v>14.7</v>
+        <v>12.75</v>
       </c>
       <c r="H3" t="n">
-        <v>16.97</v>
+        <v>12.93</v>
       </c>
       <c r="I3" t="n">
-        <v>6.83</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>7.87</v>
+        <v>13.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.42</v>
+        <v>10.25</v>
       </c>
       <c r="C4" t="n">
-        <v>11.58</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.51</v>
+        <v>2.22</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>4.16</v>
       </c>
       <c r="H4" t="n">
-        <v>5.09</v>
+        <v>3.99</v>
       </c>
       <c r="I4" t="n">
-        <v>10.04</v>
+        <v>9.9</v>
       </c>
       <c r="J4" t="n">
-        <v>7.67</v>
+        <v>10.51</v>
       </c>
       <c r="K4" t="n">
-        <v>13.85</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.48</v>
+        <v>8.92</v>
       </c>
       <c r="C5" t="n">
-        <v>13.73</v>
+        <v>9.16</v>
       </c>
       <c r="D5" t="n">
-        <v>4.04</v>
+        <v>2.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.53</v>
+        <v>3.29</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21</v>
+        <v>3.71</v>
       </c>
       <c r="H5" t="n">
-        <v>7.51</v>
+        <v>4.46</v>
       </c>
       <c r="I5" t="n">
-        <v>10.76</v>
+        <v>8.56</v>
       </c>
       <c r="J5" t="n">
-        <v>9.93</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>6.84</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.39</v>
+        <v>12.08</v>
       </c>
       <c r="C6" t="n">
-        <v>21.38</v>
+        <v>11.07</v>
       </c>
       <c r="D6" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="E6" t="n">
-        <v>2.6</v>
+        <v>3.29</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="H6" t="n">
-        <v>2.31</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>13.79</v>
+        <v>11.72</v>
       </c>
       <c r="J6" t="n">
-        <v>9.949999999999999</v>
+        <v>10.93</v>
       </c>
       <c r="K6" t="n">
-        <v>13.93</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.44</v>
+        <v>12.37</v>
       </c>
       <c r="C7" t="n">
-        <v>18.46</v>
+        <v>12.75</v>
       </c>
       <c r="D7" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="E7" t="n">
-        <v>4.81</v>
+        <v>3.71</v>
       </c>
       <c r="F7" t="n">
-        <v>3.54</v>
+        <v>2.71</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>8.91</v>
+        <v>12.01</v>
       </c>
       <c r="J7" t="n">
-        <v>7.39</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>12.81</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.859999999999999</v>
+        <v>13.37</v>
       </c>
       <c r="C8" t="n">
-        <v>21.4</v>
+        <v>12.93</v>
       </c>
       <c r="D8" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="E8" t="n">
-        <v>5.64</v>
+        <v>4.46</v>
       </c>
       <c r="F8" t="n">
-        <v>5.29</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.44</v>
+        <v>13.01</v>
       </c>
       <c r="J8" t="n">
-        <v>10.91</v>
+        <v>10.87</v>
       </c>
       <c r="K8" t="n">
-        <v>10.08</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="C9" t="n">
-        <v>9.34</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.83</v>
+        <v>9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>7.33</v>
+        <v>8.56</v>
       </c>
       <c r="F9" t="n">
-        <v>7.69</v>
+        <v>11.72</v>
       </c>
       <c r="G9" t="n">
-        <v>11.5</v>
+        <v>12.01</v>
       </c>
       <c r="H9" t="n">
-        <v>17.05</v>
+        <v>13.01</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.64</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8.67</v>
+        <v>13.9</v>
       </c>
       <c r="D10" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="E10" t="n">
-        <v>8.41</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>15.5</v>
+        <v>10.93</v>
       </c>
       <c r="G10" t="n">
-        <v>14.11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>12.51</v>
+        <v>10.87</v>
       </c>
       <c r="I10" t="n">
-        <v>11.98</v>
+        <v>8.66</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.18</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.91</v>
+        <v>2.41</v>
       </c>
       <c r="C11" t="n">
-        <v>10.31</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="n">
-        <v>16.55</v>
+        <v>12.56</v>
       </c>
       <c r="E11" t="n">
-        <v>10.82</v>
+        <v>11.32</v>
       </c>
       <c r="F11" t="n">
-        <v>17.52</v>
+        <v>14.44</v>
       </c>
       <c r="G11" t="n">
-        <v>21.08</v>
+        <v>14.78</v>
       </c>
       <c r="H11" t="n">
-        <v>13.58</v>
+        <v>15.77</v>
       </c>
       <c r="I11" t="n">
-        <v>1.46</v>
+        <v>2.77</v>
       </c>
       <c r="J11" t="n">
-        <v>11.3</v>
+        <v>10.63</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.09486320767162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.884310890691038</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.379819081395722</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.13176166549981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.552827697880582</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.259123462641143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.748057783629401</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.611919238478947</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.592975367966508</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8686426566946254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.014754333288646</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.093099728062319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.412789157653306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.640154672290377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.95693927683119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.550369197638984</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.98970121875117</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.497472279719139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.68988976547421</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.2187200411104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7987897125567323</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.134222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.242329670984282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001308917999267578</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5630667765869745</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.879222222222222</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.200602533996193</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001430511474609375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.840000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9688385269121814</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.507111111111111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2136191332683049</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3726601600646973</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.10526315789474</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.956444444444446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7798961901129259</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.023115873336792</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.909999999999998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.095111111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5578278941713068</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2065615653991699</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>53.73684210526316</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.994666666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.735397063612233</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05410432815551758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.157894736842105</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.320888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1838666080296932</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.233747005462646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.025</v>
+        <v>10.49</v>
       </c>
       <c r="D2" t="n">
-        <v>11.325</v>
+        <v>14.23</v>
       </c>
       <c r="E2" t="n">
-        <v>18.07</v>
+        <v>19.66</v>
       </c>
       <c r="F2" t="n">
-        <v>17.585</v>
+        <v>23.78</v>
       </c>
       <c r="G2" t="n">
-        <v>18.96</v>
+        <v>18.48</v>
       </c>
       <c r="H2" t="n">
-        <v>9.649999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="J2" t="n">
-        <v>16.19</v>
+        <v>10.74</v>
       </c>
       <c r="K2" t="n">
-        <v>2.485</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.025</v>
+        <v>7.56</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.975</v>
+        <v>6.37</v>
       </c>
       <c r="E3" t="n">
-        <v>12.015</v>
+        <v>10.3</v>
       </c>
       <c r="F3" t="n">
-        <v>18.41</v>
+        <v>15.44</v>
       </c>
       <c r="G3" t="n">
-        <v>16.58</v>
+        <v>14.7</v>
       </c>
       <c r="H3" t="n">
-        <v>19.185</v>
+        <v>16.97</v>
       </c>
       <c r="I3" t="n">
-        <v>8.085000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="J3" t="n">
-        <v>8.27</v>
+        <v>7.87</v>
       </c>
       <c r="K3" t="n">
-        <v>9.005000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.325</v>
+        <v>8.42</v>
       </c>
       <c r="C4" t="n">
-        <v>8.975</v>
+        <v>11.58</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.775</v>
+        <v>3.51</v>
       </c>
       <c r="F4" t="n">
-        <v>2.845</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
-        <v>4.535</v>
+        <v>5.09</v>
       </c>
       <c r="I4" t="n">
-        <v>8.434999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="J4" t="n">
-        <v>9.08</v>
+        <v>7.67</v>
       </c>
       <c r="K4" t="n">
-        <v>15.2</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.07</v>
+        <v>16.48</v>
       </c>
       <c r="C5" t="n">
-        <v>12.015</v>
+        <v>13.73</v>
       </c>
       <c r="D5" t="n">
-        <v>3.775</v>
+        <v>4.04</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.565</v>
+        <v>2.53</v>
       </c>
       <c r="G5" t="n">
-        <v>4.01</v>
+        <v>3.21</v>
       </c>
       <c r="H5" t="n">
-        <v>6.574999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.045</v>
+        <v>10.76</v>
       </c>
       <c r="J5" t="n">
-        <v>9.17</v>
+        <v>9.93</v>
       </c>
       <c r="K5" t="n">
-        <v>8.83</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.585</v>
+        <v>11.39</v>
       </c>
       <c r="C6" t="n">
-        <v>18.41</v>
+        <v>21.38</v>
       </c>
       <c r="D6" t="n">
-        <v>2.845</v>
+        <v>2.69</v>
       </c>
       <c r="E6" t="n">
-        <v>2.565</v>
+        <v>2.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>2.31</v>
       </c>
       <c r="I6" t="n">
-        <v>10.74</v>
+        <v>13.79</v>
       </c>
       <c r="J6" t="n">
-        <v>12.725</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>15.725</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.96</v>
+        <v>19.44</v>
       </c>
       <c r="C7" t="n">
-        <v>16.58</v>
+        <v>18.46</v>
       </c>
       <c r="D7" t="n">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="E7" t="n">
-        <v>4.01</v>
+        <v>4.81</v>
       </c>
       <c r="F7" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.905</v>
+        <v>2.55</v>
       </c>
       <c r="I7" t="n">
-        <v>10.205</v>
+        <v>8.91</v>
       </c>
       <c r="J7" t="n">
-        <v>10.75</v>
+        <v>7.39</v>
       </c>
       <c r="K7" t="n">
-        <v>16.945</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.649999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>19.185</v>
+        <v>21.4</v>
       </c>
       <c r="D8" t="n">
-        <v>4.535</v>
+        <v>3.98</v>
       </c>
       <c r="E8" t="n">
-        <v>6.574999999999999</v>
+        <v>5.64</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>5.29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.905</v>
+        <v>1.26</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.245</v>
+        <v>13.44</v>
       </c>
       <c r="J8" t="n">
-        <v>11.71</v>
+        <v>10.91</v>
       </c>
       <c r="K8" t="n">
-        <v>11.83</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C9" t="n">
-        <v>8.085000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="D9" t="n">
-        <v>8.434999999999999</v>
+        <v>6.83</v>
       </c>
       <c r="E9" t="n">
-        <v>9.045</v>
+        <v>7.33</v>
       </c>
       <c r="F9" t="n">
-        <v>10.74</v>
+        <v>7.69</v>
       </c>
       <c r="G9" t="n">
-        <v>10.205</v>
+        <v>11.5</v>
       </c>
       <c r="H9" t="n">
-        <v>15.245</v>
+        <v>17.05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.39</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>2.105</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.19</v>
+        <v>21.64</v>
       </c>
       <c r="C10" t="n">
-        <v>8.27</v>
+        <v>8.67</v>
       </c>
       <c r="D10" t="n">
-        <v>9.08</v>
+        <v>10.49</v>
       </c>
       <c r="E10" t="n">
-        <v>9.17</v>
+        <v>8.41</v>
       </c>
       <c r="F10" t="n">
-        <v>12.725</v>
+        <v>15.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10.75</v>
+        <v>14.11</v>
       </c>
       <c r="H10" t="n">
-        <v>11.71</v>
+        <v>12.51</v>
       </c>
       <c r="I10" t="n">
-        <v>10.39</v>
+        <v>11.98</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.24</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.485</v>
+        <v>2.91</v>
       </c>
       <c r="C11" t="n">
-        <v>9.005000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2</v>
+        <v>16.55</v>
       </c>
       <c r="E11" t="n">
-        <v>8.83</v>
+        <v>10.82</v>
       </c>
       <c r="F11" t="n">
-        <v>15.725</v>
+        <v>17.52</v>
       </c>
       <c r="G11" t="n">
-        <v>16.945</v>
+        <v>21.08</v>
       </c>
       <c r="H11" t="n">
-        <v>11.83</v>
+        <v>13.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.105</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
-        <v>9.24</v>
+        <v>11.3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12.09486320767162</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.884310890691038</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.379819081395722</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.13176166549981</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.552827697880582</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.259123462641143</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.748057783629401</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.611919238478947</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.592975367966508</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.8686426566946254</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9.014754333288646</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-2.093099728062319</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.412789157653306</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-2.640154672290377</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.95693927683119</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.550369197638984</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.98970121875117</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.497472279719139</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12.68988976547421</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.2187200411104</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.59</v>
+        <v>8.91</v>
       </c>
       <c r="D2" t="n">
-        <v>10.61</v>
+        <v>10.94</v>
       </c>
       <c r="E2" t="n">
-        <v>10.8</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>16.46</v>
       </c>
       <c r="G2" t="n">
-        <v>11.14</v>
+        <v>18.95</v>
       </c>
       <c r="H2" t="n">
-        <v>10.36</v>
+        <v>9.65</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87</v>
+        <v>0.16</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>15.24</v>
       </c>
       <c r="K2" t="n">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.59</v>
+        <v>8.91</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.02</v>
+        <v>8.58</v>
       </c>
       <c r="E3" t="n">
-        <v>6.21</v>
+        <v>11.89</v>
       </c>
       <c r="F3" t="n">
-        <v>8.41</v>
+        <v>18.17</v>
       </c>
       <c r="G3" t="n">
-        <v>6.55</v>
+        <v>16.47</v>
       </c>
       <c r="H3" t="n">
-        <v>5.77</v>
+        <v>19.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.72</v>
+        <v>7.99</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.61</v>
+        <v>10.94</v>
       </c>
       <c r="C4" t="n">
-        <v>6.02</v>
+        <v>8.58</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>3.77</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>0.24</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>7.74</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>5.21</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>7.97</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>6.21</v>
+        <v>11.89</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>3.77</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.34</v>
+        <v>3.93</v>
       </c>
       <c r="H5" t="n">
-        <v>0.44</v>
+        <v>6.51</v>
       </c>
       <c r="I5" t="n">
-        <v>7.93</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>8.17</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>16.46</v>
       </c>
       <c r="C6" t="n">
-        <v>8.41</v>
+        <v>18.17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="E6" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10.13</v>
+        <v>10.3</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>12.42</v>
       </c>
       <c r="K6" t="n">
-        <v>10.36</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.14</v>
+        <v>18.95</v>
       </c>
       <c r="C7" t="n">
-        <v>6.55</v>
+        <v>16.47</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>2.72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.34</v>
+        <v>3.93</v>
       </c>
       <c r="F7" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.77</v>
+        <v>1.79</v>
       </c>
       <c r="I7" t="n">
-        <v>8.27</v>
+        <v>10.12</v>
       </c>
       <c r="J7" t="n">
-        <v>5.74</v>
+        <v>10.21</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.36</v>
+        <v>9.65</v>
       </c>
       <c r="C8" t="n">
-        <v>5.77</v>
+        <v>19.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.44</v>
+        <v>6.51</v>
       </c>
       <c r="F8" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.77</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>15.14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.96</v>
+        <v>11.68</v>
       </c>
       <c r="K8" t="n">
-        <v>7.73</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.87</v>
+        <v>0.16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.72</v>
+        <v>7.99</v>
       </c>
       <c r="D9" t="n">
-        <v>7.74</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>7.93</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>10.13</v>
+        <v>10.3</v>
       </c>
       <c r="G9" t="n">
-        <v>8.27</v>
+        <v>10.12</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>15.14</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.53</v>
+        <v>10.27</v>
       </c>
       <c r="K9" t="n">
-        <v>0.23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>15.24</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="D10" t="n">
-        <v>5.21</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>5.4</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>7.6</v>
+        <v>12.42</v>
       </c>
       <c r="G10" t="n">
-        <v>5.74</v>
+        <v>10.21</v>
       </c>
       <c r="H10" t="n">
-        <v>4.96</v>
+        <v>11.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.53</v>
+        <v>10.27</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.76</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="C11" t="n">
-        <v>1.95</v>
+        <v>8.91</v>
       </c>
       <c r="D11" t="n">
-        <v>7.97</v>
+        <v>15.14</v>
       </c>
       <c r="E11" t="n">
-        <v>8.17</v>
+        <v>8.6</v>
       </c>
       <c r="F11" t="n">
-        <v>10.36</v>
+        <v>15.62</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>16.43</v>
       </c>
       <c r="H11" t="n">
-        <v>7.73</v>
+        <v>11.7</v>
       </c>
       <c r="I11" t="n">
-        <v>0.23</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.76</v>
+        <v>9.01</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
